--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,150 +49,132 @@
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>water</t>
+    <t>junk</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>worked</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>used</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>5</t>
+    <t>3</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -229,22 +211,25 @@
     <t>perfect</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -605,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>0.8214285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -716,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -724,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7727272727272727</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K4">
         <v>0.8</v>
@@ -774,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7605633802816901</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>0.7096774193548387</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -824,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7688172043010753</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.5660377358490566</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -866,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -874,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7473118279569892</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K7">
-        <v>0.5625</v>
+        <v>0.546875</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -916,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7378640776699029</v>
+        <v>0.734375</v>
       </c>
       <c r="C8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>0.4782608695652174</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -966,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6904761904761905</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.3688524590163935</v>
+        <v>0.3754098360655738</v>
       </c>
       <c r="L9">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="M9">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6621621621621622</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K10">
-        <v>0.3443328550932568</v>
+        <v>0.3285509325681492</v>
       </c>
       <c r="L10">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="M10">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6578947368421053</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K11">
-        <v>0.3049792531120332</v>
+        <v>0.2925311203319502</v>
       </c>
       <c r="L11">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M11">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K12">
-        <v>0.2583333333333334</v>
+        <v>0.275</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.6386554621848739</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K13">
         <v>0.2228915662650602</v>
@@ -1224,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5630252100840336</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K14">
-        <v>0.201058201058201</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1266,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>151</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1274,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5555555555555556</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1292,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K15">
-        <v>0.1926605504587156</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1316,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>264</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1324,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5185185185185185</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1342,31 +1327,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K16">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="L16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4888888888888889</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1392,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K17">
-        <v>0.1218229623137599</v>
+        <v>0.1124497991967871</v>
       </c>
       <c r="L17">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1416,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1002</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1424,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4840579710144928</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C18">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K18">
-        <v>0.108433734939759</v>
+        <v>0.1095530236634531</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1466,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>222</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1474,13 +1459,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4578313253012048</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1492,19 +1477,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K19">
-        <v>0.045425048669695</v>
+        <v>0.06035042180402336</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="M19">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1516,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1471</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1524,13 +1509,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.453125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1543,6 +1528,30 @@
       </c>
       <c r="H20">
         <v>35</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20">
+        <v>0.04</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>32</v>
+      </c>
+      <c r="N20">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1550,13 +1559,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4409448818897638</v>
+        <v>0.3960396039603961</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D21">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1568,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>71</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1576,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4210526315789473</v>
+        <v>0.3828125</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1594,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1602,13 +1611,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3968253968253968</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1620,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1628,13 +1637,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3671875</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C24">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D24">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1646,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1654,13 +1663,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3465346534653465</v>
+        <v>0.3614457831325301</v>
       </c>
       <c r="C25">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1672,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>132</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1680,13 +1689,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3146067415730337</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1698,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1706,13 +1715,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3076923076923077</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C27">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1724,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>81</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1732,13 +1741,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3033175355450237</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C28">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1750,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1758,13 +1767,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.288659793814433</v>
+        <v>0.2341772151898734</v>
       </c>
       <c r="C29">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D29">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1776,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>138</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1784,13 +1793,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2653061224489796</v>
+        <v>0.22</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1802,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>72</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1810,13 +1819,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.235</v>
+        <v>0.2056962025316456</v>
       </c>
       <c r="C31">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D31">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1828,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>153</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1836,13 +1845,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.21513353115727</v>
+        <v>0.1973293768545994</v>
       </c>
       <c r="C32">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D32">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1854,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1862,13 +1871,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2037037037037037</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1880,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>86</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1888,13 +1897,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1992753623188406</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1906,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>221</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1914,13 +1923,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1962025316455696</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C35">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1932,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>254</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1940,13 +1949,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1867088607594937</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C36">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D36">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1958,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1966,13 +1975,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1699779249448124</v>
+        <v>0.17439293598234</v>
       </c>
       <c r="C37">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D37">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E37">
         <v>0.01</v>
@@ -1984,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1992,13 +2001,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1656050955414013</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D38">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2010,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>131</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2018,13 +2027,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1637931034482759</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="C39">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2036,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>291</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2044,13 +2053,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.16</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C40">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D40">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2062,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>147</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2070,25 +2079,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1355140186915888</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="C41">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>185</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2096,25 +2105,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1256544502617801</v>
+        <v>0.09060955518945635</v>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>167</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2122,13 +2131,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1198501872659176</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="C43">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2140,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>235</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2148,13 +2157,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1197916666666667</v>
+        <v>0.0779510022271715</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2166,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>169</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2174,25 +2183,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1170212765957447</v>
+        <v>0.07192575406032482</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E45">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="F45">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>166</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2200,25 +2209,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1095890410958904</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D46">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>325</v>
+        <v>621</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2226,181 +2235,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09716599190283401</v>
+        <v>0.04949238578680203</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E47">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="F47">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.08430913348946135</v>
-      </c>
-      <c r="C48">
-        <v>36</v>
-      </c>
-      <c r="D48">
-        <v>43</v>
-      </c>
-      <c r="E48">
-        <v>0.16</v>
-      </c>
-      <c r="F48">
-        <v>0.84</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.07887323943661972</v>
-      </c>
-      <c r="C49">
-        <v>28</v>
-      </c>
-      <c r="D49">
-        <v>28</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.07084019769357495</v>
-      </c>
-      <c r="C50">
-        <v>43</v>
-      </c>
-      <c r="D50">
-        <v>44</v>
-      </c>
-      <c r="E50">
-        <v>0.02</v>
-      </c>
-      <c r="F50">
-        <v>0.98</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.06919642857142858</v>
-      </c>
-      <c r="C51">
-        <v>31</v>
-      </c>
-      <c r="D51">
-        <v>32</v>
-      </c>
-      <c r="E51">
-        <v>0.03</v>
-      </c>
-      <c r="F51">
-        <v>0.97</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.04822335025380711</v>
-      </c>
-      <c r="C52">
-        <v>38</v>
-      </c>
-      <c r="D52">
-        <v>44</v>
-      </c>
-      <c r="E52">
-        <v>0.14</v>
-      </c>
-      <c r="F52">
-        <v>0.86</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.03669724770642202</v>
-      </c>
-      <c r="C53">
-        <v>24</v>
-      </c>
-      <c r="D53">
-        <v>25</v>
-      </c>
-      <c r="E53">
-        <v>0.04</v>
-      </c>
-      <c r="F53">
-        <v>0.96</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>630</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
